--- a/data/trans_camb/P1426-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P1426-Clase-trans_camb.xlsx
@@ -624,7 +624,7 @@
         <v>0.7805476794058702</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>3.101144755670662</v>
+        <v>3.101144755670661</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1277228920905551</v>
+        <v>0.1081206413632283</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>2.611810008497418</v>
+        <v>2.412457741372938</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-1.566390631285673</v>
+        <v>-1.357531551492016</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.0705507271055853</v>
+        <v>0.09553749156126824</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.2537570430607832</v>
+        <v>-0.2822343480386655</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.912064874919573</v>
+        <v>1.887686340700082</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.991643716234953</v>
+        <v>2.983669389253882</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.757529270922951</v>
+        <v>5.637691140996023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>2.347572652789391</v>
+        <v>2.222126804422536</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>3.883271245534396</v>
+        <v>3.991523327537571</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.032594778033271</v>
+        <v>1.978107638691205</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>4.350646172977717</v>
+        <v>4.460928993315443</v>
       </c>
     </row>
     <row r="7">
@@ -702,7 +702,7 @@
         <v>1.143752233282129</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>4.54416986125602</v>
+        <v>4.544169861256018</v>
       </c>
     </row>
     <row r="8">
@@ -714,15 +714,17 @@
       </c>
       <c r="C8" s="6" t="inlineStr"/>
       <c r="D8" s="6" t="inlineStr"/>
-      <c r="E8" s="6" t="inlineStr"/>
+      <c r="E8" s="6" t="n">
+        <v>-0.7972457718332263</v>
+      </c>
       <c r="F8" s="6" t="n">
-        <v>-0.1296724386510372</v>
+        <v>-0.1045509797358231</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4303417150198364</v>
+        <v>-0.3583763953833295</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>1.195355372177525</v>
+        <v>1.198689734972737</v>
       </c>
     </row>
     <row r="9">
@@ -734,15 +736,17 @@
       </c>
       <c r="C9" s="6" t="inlineStr"/>
       <c r="D9" s="6" t="inlineStr"/>
-      <c r="E9" s="6" t="inlineStr"/>
+      <c r="E9" s="6" t="n">
+        <v>5.654669797392768</v>
+      </c>
       <c r="F9" s="6" t="n">
-        <v>9.400188951989131</v>
+        <v>9.223057024876846</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.156963843160055</v>
+        <v>7.35972404640216</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>16.34207153475278</v>
+        <v>14.51890469601854</v>
       </c>
     </row>
     <row r="10">
@@ -760,13 +764,13 @@
         <v>-0.6360712766295793</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>3.504792862776369</v>
+        <v>3.50479286277637</v>
       </c>
       <c r="E10" s="5" t="n">
         <v>-0.5806308448849644</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>0.5277119941026944</v>
+        <v>0.5277119941026948</v>
       </c>
       <c r="G10" s="5" t="n">
         <v>-0.5838684992906654</v>
@@ -783,22 +787,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.409776424099821</v>
+        <v>-2.405180243585885</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.336027199742284</v>
+        <v>1.268018307678337</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-2.703181389945181</v>
+        <v>-2.450200078306848</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.537525672116786</v>
+        <v>-1.778650180687209</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-1.803919946437205</v>
+        <v>-1.765959662196434</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.6115679329389175</v>
+        <v>0.6706913616095596</v>
       </c>
     </row>
     <row r="12">
@@ -809,22 +813,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.569866272359827</v>
+        <v>0.5888588205827845</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.639473930801434</v>
+        <v>5.560208823714634</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1.355057422016065</v>
+        <v>1.610460997010329</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.156231390454178</v>
+        <v>2.123748191437008</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.6201316686245012</v>
+        <v>0.6599652144393022</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.551617794301928</v>
+        <v>3.598863862506969</v>
       </c>
     </row>
     <row r="13">
@@ -838,13 +842,13 @@
         <v>-0.5322423893919598</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>2.932689143726749</v>
+        <v>2.93268914372675</v>
       </c>
       <c r="E13" s="6" t="n">
         <v>-0.3440320667261188</v>
       </c>
       <c r="F13" s="6" t="n">
-        <v>0.312676891981652</v>
+        <v>0.3126768919816522</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>-0.4125967708762244</v>
@@ -862,19 +866,19 @@
       </c>
       <c r="C14" s="6" t="inlineStr"/>
       <c r="D14" s="6" t="n">
-        <v>0.2169311650568849</v>
+        <v>0.1843229654155241</v>
       </c>
       <c r="E14" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.5675202614874363</v>
+        <v>-0.5689961456878958</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.8553441139360978</v>
+        <v>-0.8534969846848544</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1267423794058064</v>
+        <v>0.1489951257809876</v>
       </c>
     </row>
     <row r="15">
@@ -886,19 +890,19 @@
       </c>
       <c r="C15" s="6" t="inlineStr"/>
       <c r="D15" s="6" t="n">
-        <v>15.37847544737032</v>
+        <v>15.57964926456315</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.970837397755413</v>
+        <v>3.116225705207025</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>3.174596960304231</v>
+        <v>3.199931337607424</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>1.063720337140165</v>
+        <v>1.404624450029993</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>3.961316784784502</v>
+        <v>4.629688932028362</v>
       </c>
     </row>
     <row r="16">
@@ -922,7 +926,7 @@
         <v>1.053365763334897</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>2.365723423719789</v>
+        <v>2.365723423719788</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.1062564259776726</v>
@@ -939,22 +943,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-1.893032685554676</v>
+        <v>-1.997841012310215</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.6188555634704738</v>
+        <v>0.510199285170804</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-1.466577238618075</v>
+        <v>-1.391845429699369</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-0.3357133984730138</v>
+        <v>-0.2177286246957582</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-1.392219629422633</v>
+        <v>-1.09338490795308</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.7695388634795526</v>
+        <v>0.920797031973418</v>
       </c>
     </row>
     <row r="18">
@@ -965,22 +969,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>1.46151700527728</v>
+        <v>1.35188163561728</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.00388324530997</v>
+        <v>5.044735580392792</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>4.846077100673729</v>
+        <v>4.699103897671055</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>5.011504711890078</v>
+        <v>5.032115710783574</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>1.616747685952383</v>
+        <v>1.538103561472714</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.170650802564248</v>
+        <v>4.44665594875493</v>
       </c>
     </row>
     <row r="19">
@@ -1000,7 +1004,7 @@
         <v>0.644699415912688</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1.447911601621147</v>
+        <v>1.447911601621146</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05513645216372003</v>
@@ -1017,22 +1021,20 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.6428451071315769</v>
+        <v>-0.6665810040739952</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.1407692462185868</v>
-      </c>
-      <c r="E20" s="6" t="n">
-        <v>-0.7430199946703001</v>
-      </c>
+        <v>0.1028534994840913</v>
+      </c>
+      <c r="E20" s="6" t="inlineStr"/>
       <c r="F20" s="6" t="n">
-        <v>-0.3081001569621887</v>
+        <v>-0.2529535280115373</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.5250538974807228</v>
+        <v>-0.4598665209503278</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2843391983875309</v>
+        <v>0.3316621818469111</v>
       </c>
     </row>
     <row r="21">
@@ -1043,22 +1045,20 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.287396232966132</v>
+        <v>1.307685033006473</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>4.109595596863421</v>
-      </c>
-      <c r="E21" s="6" t="n">
-        <v>9.260083831772098</v>
-      </c>
+        <v>3.902048980106831</v>
+      </c>
+      <c r="E21" s="6" t="inlineStr"/>
       <c r="F21" s="6" t="n">
-        <v>8.062757363007965</v>
+        <v>9.099089958838452</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.304492449671709</v>
+        <v>1.320522444438788</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>3.381363319659946</v>
+        <v>3.796615959122153</v>
       </c>
     </row>
     <row r="22">
@@ -1088,7 +1088,7 @@
         <v>0.1208657300937775</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>3.331616274179668</v>
+        <v>3.331616274179666</v>
       </c>
     </row>
     <row r="23">
@@ -1099,22 +1099,22 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.094868105128818</v>
+        <v>-1.14605344639511</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>2.719682488817789</v>
+        <v>2.85495918392997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.7810713509921219</v>
+        <v>-0.8294647065172877</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9990213786587394</v>
+        <v>0.9468842317737813</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-0.6244226476556374</v>
+        <v>-0.7061250628028813</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>2.394061297648972</v>
+        <v>2.342145471427299</v>
       </c>
     </row>
     <row r="24">
@@ -1125,22 +1125,22 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.036916929047747</v>
+        <v>1.051587849648117</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>5.657701916296469</v>
+        <v>5.796168356322226</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.418508286868644</v>
+        <v>1.427128416233058</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.422986949866262</v>
+        <v>3.385976490239111</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9400961254649729</v>
+        <v>0.8798932783940182</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>4.332008208414795</v>
+        <v>4.365794070137728</v>
       </c>
     </row>
     <row r="25">
@@ -1166,7 +1166,7 @@
         <v>0.08528737584545201</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>2.350912943878493</v>
+        <v>2.350912943878492</v>
       </c>
     </row>
     <row r="26">
@@ -1177,22 +1177,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.5130330611723216</v>
+        <v>-0.5301531480366677</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>1.161554496964168</v>
+        <v>1.145996053246019</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.5894714509360397</v>
+        <v>-0.5989094105882951</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4673181914608242</v>
+        <v>0.4120302956101619</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.3560982367613287</v>
+        <v>-0.3852759110652987</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>1.213821847825296</v>
+        <v>1.242027753492655</v>
       </c>
     </row>
     <row r="27">
@@ -1203,22 +1203,22 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.8803406924953648</v>
+        <v>1.010187986895723</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>5.083049922317431</v>
+        <v>5.196647462221742</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>3.063124650512972</v>
+        <v>2.766221432943056</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>7.79522037816052</v>
+        <v>7.109695366396925</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.9384876717489461</v>
+        <v>0.8441115151695388</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>4.298152827812078</v>
+        <v>4.455631117133241</v>
       </c>
     </row>
     <row r="28">
@@ -1236,19 +1236,19 @@
         <v>-0.4082372960444287</v>
       </c>
       <c r="D28" s="5" t="n">
-        <v>1.950577542241777</v>
+        <v>1.950577542241776</v>
       </c>
       <c r="E28" s="5" t="n">
         <v>0.2922111382633201</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>5.143339216024846</v>
+        <v>5.143339216024845</v>
       </c>
       <c r="G28" s="5" t="n">
         <v>0.02440221156121448</v>
       </c>
       <c r="H28" s="5" t="n">
-        <v>3.851029636904194</v>
+        <v>3.851029636904193</v>
       </c>
     </row>
     <row r="29">
@@ -1259,22 +1259,22 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-2.378075506899877</v>
+        <v>-2.266335504946373</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-0.02273415616189406</v>
+        <v>-0.1894175809293755</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.072710623626058</v>
+        <v>-1.070175351056729</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.423721186707389</v>
+        <v>3.500362995676141</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-1.129760394815454</v>
+        <v>-1.048523878067187</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>2.645854435587937</v>
+        <v>2.625736440391397</v>
       </c>
     </row>
     <row r="30">
@@ -1285,22 +1285,22 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>1.102403449652781</v>
+        <v>1.300396506640823</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>3.868758098726455</v>
+        <v>3.818739446916212</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>1.632031620720613</v>
+        <v>1.706469558405928</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.546367078997951</v>
+        <v>6.656451198576126</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>1.048152504795349</v>
+        <v>1.071087014621766</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>5.000203780376793</v>
+        <v>5.044961612060588</v>
       </c>
     </row>
     <row r="31">
@@ -1314,19 +1314,19 @@
         <v>-0.1673861616585572</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>0.7997791749475535</v>
+        <v>0.7997791749475529</v>
       </c>
       <c r="E31" s="6" t="n">
         <v>0.1960119672975146</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>3.450094490590593</v>
+        <v>3.450094490590592</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.01303736927100262</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>2.057489556794759</v>
+        <v>2.057489556794758</v>
       </c>
     </row>
     <row r="32">
@@ -1337,22 +1337,22 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.6625578831577761</v>
+        <v>-0.6425448631986564</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.03984431361550324</v>
+        <v>-0.06092560882609353</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.5280207479478342</v>
+        <v>-0.52069125502991</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>1.287347920224124</v>
+        <v>1.268236083875883</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.4487354860748113</v>
+        <v>-0.4307277209725406</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.9984769658416417</v>
+        <v>0.9860644316461107</v>
       </c>
     </row>
     <row r="33">
@@ -1363,22 +1363,22 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8188905504872902</v>
+        <v>1.011051509836346</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>2.470282002463284</v>
+        <v>2.6034969737156</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.837896918658825</v>
+        <v>1.947239325315928</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>7.296220448384201</v>
+        <v>8.2428650175749</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>0.7896349236559836</v>
+        <v>0.8901687963611755</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>3.753408281146324</v>
+        <v>3.779559962875385</v>
       </c>
     </row>
     <row r="34">
@@ -1402,7 +1402,7 @@
         <v>0.1493020289760824</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>3.476422632634521</v>
+        <v>3.476422632634522</v>
       </c>
       <c r="G34" s="5" t="n">
         <v>-0.06986359706257043</v>
@@ -1419,22 +1419,22 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>-3.755319082439246</v>
+        <v>-3.57160408679303</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-2.380252170777923</v>
+        <v>-2.559342534823809</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-1.311679149748049</v>
+        <v>-1.288883168459455</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.82413003396884</v>
+        <v>1.81047186032409</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-1.333448121238612</v>
+        <v>-1.39369961546766</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>1.18548747460921</v>
+        <v>1.267163931690193</v>
       </c>
     </row>
     <row r="36">
@@ -1448,19 +1448,19 @@
         <v>0</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>1.320056489897157</v>
+        <v>1.388391711617569</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>1.634387849962471</v>
+        <v>1.668597210512826</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>5.304420679977686</v>
+        <v>5.302982170720382</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>1.146766462752715</v>
+        <v>1.142837551188564</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>4.039242289423068</v>
+        <v>4.188422475315509</v>
       </c>
     </row>
     <row r="37">
@@ -1499,16 +1499,16 @@
       <c r="C38" s="6" t="inlineStr"/>
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="n">
-        <v>-0.3603526728676929</v>
+        <v>-0.3469635886783488</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>0.4509270922152191</v>
+        <v>0.4624978237197872</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.4192592457094281</v>
+        <v>-0.4379447114799181</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.3662302913867378</v>
+        <v>0.3553910937417533</v>
       </c>
     </row>
     <row r="39">
@@ -1521,16 +1521,16 @@
       <c r="C39" s="6" t="inlineStr"/>
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="n">
-        <v>0.7678867589616194</v>
+        <v>0.783966206564195</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>2.308273455389701</v>
+        <v>2.33560192311306</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.5927393101218125</v>
+        <v>0.6401591213955626</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>2.164121028827554</v>
+        <v>2.176257048687052</v>
       </c>
     </row>
     <row r="40">
@@ -1554,7 +1554,7 @@
         <v>0.1864715992335043</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>2.826579165778042</v>
+        <v>2.826579165778041</v>
       </c>
       <c r="G40" s="5" t="n">
         <v>0.04970813626031488</v>
@@ -1571,22 +1571,22 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>-0.7461317785895707</v>
+        <v>-0.7057393269976392</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>2.310659532443397</v>
+        <v>2.360963636016636</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.5212092562889438</v>
+        <v>-0.4796734870427642</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>2.058352990781418</v>
+        <v>2.146599454920185</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-0.3606363651520632</v>
+        <v>-0.4203456230872761</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>2.438563087644599</v>
+        <v>2.477038670521415</v>
       </c>
     </row>
     <row r="42">
@@ -1597,22 +1597,22 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>0.4851456966725992</v>
+        <v>0.5146220328094853</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.973930711291693</v>
+        <v>3.947395644214217</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>0.9066470894333836</v>
+        <v>0.8460779108946264</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.52083971468248</v>
+        <v>3.589557147107049</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.5482730985041584</v>
+        <v>0.4978975452676297</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>3.506307217295376</v>
+        <v>3.503046382107296</v>
       </c>
     </row>
     <row r="43">
@@ -1632,7 +1632,7 @@
         <v>0.1004173546668768</v>
       </c>
       <c r="F43" s="6" t="n">
-        <v>1.52214923747455</v>
+        <v>1.522149237474549</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.02919781142464848</v>
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>-0.3796145851106341</v>
+        <v>-0.3702178417461055</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>1.163831398636197</v>
+        <v>1.166069276450697</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.2384998784002916</v>
+        <v>-0.2213479697441649</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.9071771202509361</v>
+        <v>0.9061810177197521</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.192003613073478</v>
+        <v>-0.2157658622318925</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>1.20078645071419</v>
+        <v>1.217792319816172</v>
       </c>
     </row>
     <row r="45">
@@ -1675,22 +1675,22 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.4009981917137634</v>
+        <v>0.4038254433307388</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>3.193087396350947</v>
+        <v>3.145689126972022</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.5958035771529663</v>
+        <v>0.586788266085816</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>2.321493476584056</v>
+        <v>2.412515531817562</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.3717604822028327</v>
+        <v>0.3423323603020324</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>2.346419704393681</v>
+        <v>2.41257871832644</v>
       </c>
     </row>
     <row r="46">
